--- a/DarkGameProject/Assets/Resources/Excel/gameTask.xlsx
+++ b/DarkGameProject/Assets/Resources/Excel/gameTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanjess/Desktop/MP_DarkGame/DarkGameProject/Assets/Resources/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78B2FAE-3191-2049-9322-AB0652C950E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D909412-FF82-1E4F-9F94-8541205A9D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="620" yWindow="540" windowWidth="28040" windowHeight="16940" xr2:uid="{340A7935-8C9A-6041-96F0-1FEBE449ED49}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -216,13 +216,31 @@
     <t>Reach Level 15</t>
   </si>
   <si>
-    <t>Increase the Average Retention Rate to 40%</t>
-  </si>
-  <si>
-    <t>Increase the Average Payment Conversion Rate to 50%</t>
-  </si>
-  <si>
-    <t>Increase the Customer Lifetime Value to 3</t>
+    <t>Performe the Game Promotion 3 time</t>
+  </si>
+  <si>
+    <t>Upgrade any Design Patterns for a total of 15 times</t>
+  </si>
+  <si>
+    <t>Performe the Game Promotion 5 times</t>
+  </si>
+  <si>
+    <t>Increase the Customer Lifetime Value to 8</t>
+  </si>
+  <si>
+    <t>Have at least 18 Design Patterns on the blueprint scenario</t>
+  </si>
+  <si>
+    <t>Increase the Customer Lifetime Value to 2.0</t>
+  </si>
+  <si>
+    <t>Increase the Average Retention Rate to 60%</t>
+  </si>
+  <si>
+    <t>Increase the Average Payment Conversion Rate to 70%</t>
+  </si>
+  <si>
+    <t>Connect the Basic Functions and Gameplay to form game loops!</t>
   </si>
 </sst>
 </file>
@@ -285,13 +303,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EB35BC-A39D-C54F-A76E-5660B7A59046}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -729,7 +749,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>101</v>
       </c>
@@ -742,124 +762,112 @@
       <c r="D4" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E4"/>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G20" si="0">A5</f>
+        <f>A5</f>
         <v>102</v>
       </c>
       <c r="H4">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="J4">
-        <v>401</v>
-      </c>
-      <c r="K4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4">
-        <f>COUNTIF(C:C,J4)</f>
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>102</v>
       </c>
-      <c r="B5" t="s">
-        <v>56</v>
+      <c r="B5" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="C5">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E5">
-        <v>402</v>
-      </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G5:G23" si="0">A6</f>
         <v>103</v>
       </c>
       <c r="H5">
-        <f>H4+100</f>
-        <v>600</v>
+        <f>H4+150</f>
+        <v>350</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>54</v>
       </c>
       <c r="J5">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="L5">
         <f>COUNTIF(C:C,J5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>103</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
+      <c r="B6" t="s">
+        <v>56</v>
       </c>
       <c r="C6">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="E6">
+        <v>402</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H20" si="1">H5+100</f>
-        <v>700</v>
+        <f t="shared" ref="H6:H23" si="1">H5+150</f>
+        <v>500</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J6">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L6">
         <f>COUNTIF(C:C,J6)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>104</v>
       </c>
-      <c r="B7" t="s">
-        <v>28</v>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C7">
-        <v>402</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7">
-        <v>422</v>
+        <v>408</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -870,60 +878,48 @@
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>800</v>
-      </c>
-      <c r="I7" t="str">
-        <f>I4</f>
-        <v>101,102</v>
-      </c>
-      <c r="J7">
-        <v>404</v>
-      </c>
-      <c r="K7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7">
-        <f>COUNTIF(C:C,J7)</f>
-        <v>1</v>
+        <v>650</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>105</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>39</v>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C8">
+        <v>401</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8">
         <v>403</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>106</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" ref="I8:I20" si="2">I5</f>
-        <v>101,102,103,104,105</v>
-      </c>
-      <c r="J8">
-        <v>405</v>
-      </c>
       <c r="K8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L8">
         <f>COUNTIF(C:C,J8)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -931,16 +927,16 @@
         <v>106</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>410</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
+        <v>403</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -948,17 +944,17 @@
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="2"/>
-        <v>101,102,103</v>
+        <f>I4</f>
+        <v>101,102</v>
       </c>
       <c r="J9">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L9">
         <f>COUNTIF(C:C,J9)</f>
@@ -969,17 +965,17 @@
       <c r="A10">
         <v>107</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C10">
-        <v>407</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>410</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -990,18 +986,18 @@
         <v>1100</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="2"/>
-        <v>101,102</v>
+        <f t="shared" ref="I10:I23" si="2">I5</f>
+        <v>101,102,103,104,105</v>
       </c>
       <c r="J10">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L10">
         <f>COUNTIF(C:C,J10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1009,16 +1005,16 @@
         <v>108</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C11">
-        <v>403</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>406</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -1026,38 +1022,38 @@
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="2"/>
         <v>101,102,103,104,105</v>
       </c>
       <c r="J11">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L11">
         <f>COUNTIF(C:C,J11)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>109</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>57</v>
+      <c r="B12" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C12">
-        <v>401</v>
-      </c>
-      <c r="D12" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D12" t="s">
         <v>47</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -1065,11 +1061,21 @@
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="2"/>
-        <v>101,102,103</v>
+        <v>101,102</v>
+      </c>
+      <c r="J12">
+        <v>407</v>
+      </c>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12">
+        <f>COUNTIF(C:C,J12)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1080,13 +1086,13 @@
         <v>59</v>
       </c>
       <c r="C13">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
@@ -1094,21 +1100,21 @@
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>1400</v>
+        <v>1550</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="2"/>
-        <v>101,102</v>
+        <v>101,102,103</v>
       </c>
       <c r="J13">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13">
         <f>COUNTIF(C:C,J13)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1116,16 +1122,16 @@
         <v>111</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C14">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
@@ -1133,38 +1139,31 @@
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="2"/>
-        <v>101,102,103,104,105</v>
-      </c>
-      <c r="J14">
-        <v>410</v>
-      </c>
-      <c r="K14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14">
-        <f>COUNTIF(C:C,J14)</f>
-        <v>1</v>
+        <v>101,102</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>112</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>34</v>
+      <c r="B15" t="s">
+        <v>28</v>
       </c>
       <c r="C15">
-        <v>409</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
+        <v>402</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15">
+        <v>422</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
@@ -1172,35 +1171,25 @@
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>1850</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="2"/>
-        <v>101,102,103</v>
-      </c>
-      <c r="J15">
-        <v>411</v>
-      </c>
-      <c r="K15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15">
-        <f>COUNTIF(C:C,J15)</f>
-        <v>1</v>
+        <v>101,102,103,104,105</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>113</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>35</v>
+      <c r="B16" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C16">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16">
         <v>10</v>
@@ -1211,28 +1200,38 @@
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="2"/>
-        <v>101,102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>101,102,103,104,105</v>
+      </c>
+      <c r="J16">
+        <v>409</v>
+      </c>
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16">
+        <f>COUNTIF(C:C,J16)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>114</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C17">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
@@ -1240,28 +1239,38 @@
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>1800</v>
+        <v>2150</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="2"/>
-        <v>101,102,103,104,105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>101,102</v>
+      </c>
+      <c r="J17">
+        <v>410</v>
+      </c>
+      <c r="K17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17">
+        <f>COUNTIF(C:C,J17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>115</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
@@ -1269,28 +1278,38 @@
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="2"/>
         <v>101,102,103</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>411</v>
+      </c>
+      <c r="K18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18">
+        <f>COUNTIF(C:C,J18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>116</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C19">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
@@ -1298,43 +1317,127 @@
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>2450</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="2"/>
         <v>101,102</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>117</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>58</v>
+      <c r="B20" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C20">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G20">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>118</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="2"/>
         <v>101,102,103,104,105</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>118</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21">
+        <v>408</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>2750</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="2"/>
+        <v>101,102,103,104,105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>119</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22">
+        <v>406</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>2900</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="2"/>
+        <v>101,102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>120</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23">
+        <v>401</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>3050</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="2"/>
+        <v>101,102,103</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DarkGameProject/Assets/Resources/Excel/gameTask.xlsx
+++ b/DarkGameProject/Assets/Resources/Excel/gameTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanjess/Desktop/MP_DarkGame/DarkGameProject/Assets/Resources/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033BA7C5-0C3C-1D47-9CBC-ED553DF4C9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8E7C4F-DBDF-AF4B-ADC6-0CCF511D520E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{340A7935-8C9A-6041-96F0-1FEBE449ED49}"/>
   </bookViews>
@@ -1330,7 +1330,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> the arrow from &lt;color=green&gt;App Store&lt;/color&gt; module to the &lt;color=blue&gt;Basic Function or Gameplay&lt;/color&gt; module you want to connect with.</t>
+      <t> the arrow from &lt;color=#0ca300&gt;App Store&lt;/color&gt; module to the &lt;color=blue&gt;Basic Function or Gameplay&lt;/color&gt; module you want to connect with.</t>
     </r>
   </si>
 </sst>
@@ -1759,7 +1759,7 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3219,8 +3219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16164BD-4F47-8D4D-9FCD-E64BA0FDF780}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="107" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
